--- a/Tieto_BT_SAPGUI-SalesOrder_VA01-02GUI/Default.xlsx
+++ b/Tieto_BT_SAPGUI-SalesOrder_VA01-02GUI/Default.xlsx
@@ -573,7 +573,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
